--- a/biology/Zoologie/Cormohipparion/Cormohipparion.xlsx
+++ b/biology/Zoologie/Cormohipparion/Cormohipparion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cormohipparion est un genre fossile de chevaux de la tribu également éteinte des Hipparionini ou Hippotheriini.
 Il a vécu du début du Miocène moyen (Langhien) jusqu'au milieu du Pliocène, il y a environ entre 16 et 3,6 Ma (millions d'années).
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (28 février 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (28 février 2024) :
 † Cormohipparion emsliei Hulbert, 1988
 † Cormohipparion fricki Woodburne, 2007
 † Cormohipparion goorisi (MacFadden &amp; Skinner, 1981)
@@ -556,9 +570,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cormohipparion Skinner (d) &amp; MacFadden (d), 1977[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cormohipparion Skinner (d) &amp; MacFadden (d), 1977.
 </t>
         </is>
       </c>
@@ -587,7 +603,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Morris F. Skinner et Bruce J. MacFadden, « Cormohipparion n. Gen. (Mammalia, Equidae) from the North American Miocene (Barstovian-Clarendonian) », Journal of Paleontology, Paleontological Society, vol. 51, no 5,‎ 1977, p. 912–926 (DOI 10.2307/1303763, JSTOR 1303763).</t>
         </is>
